--- a/biology/Botanique/Sedum/Sedum.xlsx
+++ b/biology/Botanique/Sedum/Sedum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum est un genre de plantes succulentes appartenant à la famille des Crassulacées. Il comprend plus de 400 espèces que l'on retrouve à travers l'hémisphère nord. Les sedums (ou orpins) peuvent être des plantes de rocaille ou de petits arbustes. Ces plantes stockent de l'eau dans leurs feuilles et donnent des fleurs en étoile à 5 branches (parfois 4 ou 6). Ils ont généralement 2 fois plus d'étamines que de pétales.
 Certains sedums ont été reclassés parmi les Hylotelephium.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du latin sedare, apaiser[1] (allusion aux Sedums et autres Sempervivum qui étaient autrefois utilisés pour la préparation d'onguents cicatrisants) ou sedere, s’asseoir (allusion au port tapissant des plantes à la croissance lente)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du latin sedare, apaiser (allusion aux Sedums et autres Sempervivum qui étaient autrefois utilisés pour la préparation d'onguents cicatrisants) ou sedere, s’asseoir (allusion au port tapissant des plantes à la croissance lente).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sedum acre L. — orpin âcre
@@ -638,10 +654,7 @@
 Sedum ternatum Michx.
 Sedum villosum L.
 Sedum woodwardii N. E. Br.
-Espèces déplacées vers d'autres genres
-Sedum telephium = Hylotelephium telephium
-Sedum telephium subsp. maximum = Hylotelephium telephium subsp. maximum = Hylotelephium maximum (nouvelle espèce récemment reconnue)
-Sedum spectabile = Hylotelephium spectabile</t>
+</t>
         </is>
       </c>
     </row>
@@ -666,12 +679,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces déplacées vers d'autres genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sedum telephium = Hylotelephium telephium
+Sedum telephium subsp. maximum = Hylotelephium telephium subsp. maximum = Hylotelephium maximum (nouvelle espèce récemment reconnue)
+Sedum spectabile = Hylotelephium spectabile</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sedum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sedum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par leur variation de formes et de couleurs décoratives, ainsi que leur rusticité, de nombreux orpins sont cultivés comme plantes ornementales servant de « bouche-trous » dans les parcs et jardins. Les feuilles et les tiges de la plupart des espèces sont comestibles crues ou cuites en petites quantités. Celles du Sédum à feuilles teintée de rouge et de l'orpin âcre sont toxiques, les tiges feuillées de ce dernier étant pourtant parfois consommées même si elles provoquent des inflammations des voies digestives, d'où leur emploi plutôt comme condiment[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par leur variation de formes et de couleurs décoratives, ainsi que leur rusticité, de nombreux orpins sont cultivés comme plantes ornementales servant de « bouche-trous » dans les parcs et jardins. Les feuilles et les tiges de la plupart des espèces sont comestibles crues ou cuites en petites quantités. Celles du Sédum à feuilles teintée de rouge et de l'orpin âcre sont toxiques, les tiges feuillées de ce dernier étant pourtant parfois consommées même si elles provoquent des inflammations des voies digestives, d'où leur emploi plutôt comme condiment.
 Certaines espèces sont également utilisées sur des toitures végétales avec une faible profondeur de substrat.
 </t>
         </is>
